--- a/2020_2021_proj_auto_avaliacao.xlsx
+++ b/2020_2021_proj_auto_avaliacao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricanune\Documents\workspace\RC\RC_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF5D7D73-C00D-44C5-B848-9DD16F92B940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE6076D-E93C-4CE3-873C-C12A98A813A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Autoavaliação" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -633,6 +636,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Autoavaliação"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -910,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1202,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1386,12 +1404,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E3412B3-A2B9-43CC-96C7-6013262E10D3}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B58:B77</xm:sqref>
+          <xm:sqref>B58:B77 C58:C61</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF35AB36-41E2-4BC1-9ABC-F42319165820}">
           <x14:formula1>
@@ -1403,13 +1421,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\ricanune\Downloads\[2020_2021_proj_auto_avaliacao.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B9 B11 B13 B32:B34 B36:B37 B39:B42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0BCEE248-5031-4051-BBBD-3A33779C2EC3}">
-          <x14:formula1>
-            <xm:f>'C:\Users\ricanune\Downloads\[2020_2021_proj_auto_avaliacao.xlsx]Sheet2'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B35</xm:sqref>
+          <xm:sqref>B8:B9 B11 B13 B32:B37 B39:B42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/2020_2021_proj_auto_avaliacao.xlsx
+++ b/2020_2021_proj_auto_avaliacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricanune\Documents\workspace\RC\RC_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE6076D-E93C-4CE3-873C-C12A98A813A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C9B14-65EA-4159-8AA0-D2EFF5B5D9B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>Redes de Computadores 2020/2021</t>
   </si>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,31 +1072,41 @@
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1107,7 +1117,9 @@
       <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -1223,37 +1235,49 @@
       <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -1264,7 +1288,9 @@
       <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
@@ -1279,115 +1305,153 @@
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
@@ -1404,24 +1468,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E3412B3-A2B9-43CC-96C7-6013262E10D3}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B58:B77 C58:C61</xm:sqref>
+          <xm:sqref>C58:C61 B58:B77</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF35AB36-41E2-4BC1-9ABC-F42319165820}">
           <x14:formula1>
             <xm:f>Sheet2!$A$6:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B53 B28:B29 B14 B46:B51 B17:B20 B22:B26 B43</xm:sqref>
+          <xm:sqref>B51 B28:B29 B14 B43 B17:B20 B22:B26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DD843E5-EE80-4175-85D3-441A335F0492}">
           <x14:formula1>
             <xm:f>'C:\Users\ricanune\Downloads\[2020_2021_proj_auto_avaliacao.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B9 B11 B13 B32:B37 B39:B42</xm:sqref>
+          <xm:sqref>B8:B9 B11 B13 B32:B37 B39:B42 B46:B50 B53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/2020_2021_proj_auto_avaliacao.xlsx
+++ b/2020_2021_proj_auto_avaliacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricanune\Documents\workspace\RC\RC_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C9B14-65EA-4159-8AA0-D2EFF5B5D9B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558F6B25-9688-4587-853B-B9FA2BDBBE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>Redes de Computadores 2020/2021</t>
   </si>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1457,9 @@
       <c r="A77" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1479,13 +1481,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$6:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B51 B28:B29 B14 B43 B17:B20 B22:B26</xm:sqref>
+          <xm:sqref>B28:B29 B14 B17:B20 B22:B26 B32:B34 B36:B37 B39:B43 B46:B51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DD843E5-EE80-4175-85D3-441A335F0492}">
           <x14:formula1>
             <xm:f>'C:\Users\ricanune\Downloads\[2020_2021_proj_auto_avaliacao.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B9 B11 B13 B32:B37 B39:B42 B46:B50 B53</xm:sqref>
+          <xm:sqref>B8:B9 B11 B13 B53 B35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
